--- a/dataset_2022/benchmark2022_50.xlsx
+++ b/dataset_2022/benchmark2022_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AB89A-833F-42E2-8BDB-1812FE75D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED8A44F-9DB6-486C-AEA3-C70D6CD587D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3550" yWindow="2200" windowWidth="16760" windowHeight="14750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="682">
   <si>
     <t>{'currentPriceWithoutTaxCurrency': 'USD', 'currentPriceAmount': '0.00', 'listPriceWithoutTaxAmount': '0.00', 'listPriceCurrency': 'USD', 'listPriceAmount': '0.00', 'listPriceWithoutTaxCurrency': 'USD', 'currentPriceCurrency': 'USD', 'currentPriceWithoutTaxAmount': '0.00', 'currentWithoutTaxAmount': '0.00'}</t>
   </si>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T35" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD51"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6217,8 +6217,8 @@
       <c r="F46" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="9" t="b">
-        <v>0</v>
+      <c r="G46" t="s">
+        <v>1</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>601</v>
@@ -6288,8 +6288,8 @@
       <c r="F47" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="9" t="b">
-        <v>0</v>
+      <c r="G47" t="s">
+        <v>1</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>614</v>
@@ -6359,8 +6359,8 @@
       <c r="F48" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="9" t="b">
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>1</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>629</v>
@@ -6430,8 +6430,8 @@
       <c r="F49" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="9" t="b">
-        <v>0</v>
+      <c r="G49" t="s">
+        <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>643</v>
@@ -6501,8 +6501,8 @@
       <c r="F50" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="b">
-        <v>0</v>
+      <c r="G50" t="s">
+        <v>1</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>656</v>
@@ -6572,8 +6572,8 @@
       <c r="F51" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="9" t="b">
-        <v>0</v>
+      <c r="G51" t="s">
+        <v>1</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>669</v>
